--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_125.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_125.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d272668-Reviews-Comfort_Inn_Los_Angeles_West_Sunset_Blvd-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>388</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Comfort-Inn-Los-Angeles-Near-Hollywood.h915507.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_125.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_125.xlsx
@@ -4993,7 +4993,7 @@
         <v>43403</v>
       </c>
       <c r="B2" t="n">
-        <v>131180</v>
+        <v>161937</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -5054,7 +5054,7 @@
         <v>43403</v>
       </c>
       <c r="B3" t="n">
-        <v>131181</v>
+        <v>161938</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -5190,7 +5190,7 @@
         <v>43403</v>
       </c>
       <c r="B5" t="n">
-        <v>131182</v>
+        <v>161939</v>
       </c>
       <c r="C5" t="s">
         <v>76</v>
@@ -5326,7 +5326,7 @@
         <v>43403</v>
       </c>
       <c r="B7" t="n">
-        <v>131183</v>
+        <v>161940</v>
       </c>
       <c r="C7" t="s">
         <v>96</v>
@@ -5531,7 +5531,7 @@
         <v>43403</v>
       </c>
       <c r="B10" t="n">
-        <v>131184</v>
+        <v>161941</v>
       </c>
       <c r="C10" t="s">
         <v>126</v>
@@ -5592,7 +5592,7 @@
         <v>43403</v>
       </c>
       <c r="B11" t="n">
-        <v>131185</v>
+        <v>161942</v>
       </c>
       <c r="C11" t="s">
         <v>134</v>
@@ -5657,7 +5657,7 @@
         <v>43403</v>
       </c>
       <c r="B12" t="n">
-        <v>131186</v>
+        <v>161943</v>
       </c>
       <c r="C12" t="s">
         <v>141</v>
@@ -5726,7 +5726,7 @@
         <v>43403</v>
       </c>
       <c r="B13" t="n">
-        <v>131187</v>
+        <v>161944</v>
       </c>
       <c r="C13" t="s">
         <v>151</v>
@@ -5791,7 +5791,7 @@
         <v>43403</v>
       </c>
       <c r="B14" t="n">
-        <v>131188</v>
+        <v>161945</v>
       </c>
       <c r="C14" t="s">
         <v>161</v>
@@ -5856,7 +5856,7 @@
         <v>43403</v>
       </c>
       <c r="B15" t="n">
-        <v>131189</v>
+        <v>161946</v>
       </c>
       <c r="C15" t="s">
         <v>171</v>
@@ -6057,7 +6057,7 @@
         <v>43403</v>
       </c>
       <c r="B18" t="n">
-        <v>131190</v>
+        <v>161947</v>
       </c>
       <c r="C18" t="s">
         <v>198</v>
@@ -6126,7 +6126,7 @@
         <v>43403</v>
       </c>
       <c r="B19" t="n">
-        <v>131191</v>
+        <v>161948</v>
       </c>
       <c r="C19" t="s">
         <v>207</v>
@@ -6195,7 +6195,7 @@
         <v>43403</v>
       </c>
       <c r="B20" t="n">
-        <v>131192</v>
+        <v>161949</v>
       </c>
       <c r="C20" t="s">
         <v>213</v>
@@ -6260,7 +6260,7 @@
         <v>43403</v>
       </c>
       <c r="B21" t="n">
-        <v>131193</v>
+        <v>161950</v>
       </c>
       <c r="C21" t="s">
         <v>223</v>
@@ -6386,7 +6386,7 @@
         <v>43403</v>
       </c>
       <c r="B23" t="n">
-        <v>131194</v>
+        <v>161951</v>
       </c>
       <c r="C23" t="s">
         <v>241</v>
@@ -6526,7 +6526,7 @@
         <v>43403</v>
       </c>
       <c r="B25" t="n">
-        <v>131195</v>
+        <v>161952</v>
       </c>
       <c r="C25" t="s">
         <v>261</v>
@@ -6591,7 +6591,7 @@
         <v>43403</v>
       </c>
       <c r="B26" t="n">
-        <v>131196</v>
+        <v>161953</v>
       </c>
       <c r="C26" t="s">
         <v>268</v>
@@ -6727,7 +6727,7 @@
         <v>43403</v>
       </c>
       <c r="B28" t="n">
-        <v>131197</v>
+        <v>161954</v>
       </c>
       <c r="C28" t="s">
         <v>287</v>
@@ -6861,7 +6861,7 @@
         <v>43403</v>
       </c>
       <c r="B30" t="n">
-        <v>131198</v>
+        <v>161955</v>
       </c>
       <c r="C30" t="s">
         <v>306</v>
@@ -6926,7 +6926,7 @@
         <v>43403</v>
       </c>
       <c r="B31" t="n">
-        <v>131199</v>
+        <v>161956</v>
       </c>
       <c r="C31" t="s">
         <v>315</v>
@@ -7056,7 +7056,7 @@
         <v>43403</v>
       </c>
       <c r="B33" t="n">
-        <v>131200</v>
+        <v>161957</v>
       </c>
       <c r="C33" t="s">
         <v>332</v>
@@ -7121,7 +7121,7 @@
         <v>43403</v>
       </c>
       <c r="B34" t="n">
-        <v>131201</v>
+        <v>161958</v>
       </c>
       <c r="C34" t="s">
         <v>342</v>
@@ -7186,7 +7186,7 @@
         <v>43403</v>
       </c>
       <c r="B35" t="n">
-        <v>131202</v>
+        <v>161959</v>
       </c>
       <c r="C35" t="s">
         <v>349</v>
@@ -7257,7 +7257,7 @@
         <v>43403</v>
       </c>
       <c r="B36" t="n">
-        <v>131203</v>
+        <v>161960</v>
       </c>
       <c r="C36" t="s">
         <v>358</v>
@@ -7322,7 +7322,7 @@
         <v>43403</v>
       </c>
       <c r="B37" t="n">
-        <v>131204</v>
+        <v>161961</v>
       </c>
       <c r="C37" t="s">
         <v>365</v>
@@ -7391,7 +7391,7 @@
         <v>43403</v>
       </c>
       <c r="B38" t="n">
-        <v>131205</v>
+        <v>161962</v>
       </c>
       <c r="C38" t="s">
         <v>374</v>
@@ -7460,7 +7460,7 @@
         <v>43403</v>
       </c>
       <c r="B39" t="n">
-        <v>131206</v>
+        <v>161963</v>
       </c>
       <c r="C39" t="s">
         <v>383</v>
@@ -7529,7 +7529,7 @@
         <v>43403</v>
       </c>
       <c r="B40" t="n">
-        <v>131207</v>
+        <v>161964</v>
       </c>
       <c r="C40" t="s">
         <v>390</v>
@@ -7665,7 +7665,7 @@
         <v>43403</v>
       </c>
       <c r="B42" t="n">
-        <v>131208</v>
+        <v>161965</v>
       </c>
       <c r="C42" t="s">
         <v>408</v>
@@ -7872,7 +7872,7 @@
         <v>43403</v>
       </c>
       <c r="B45" t="n">
-        <v>131209</v>
+        <v>161966</v>
       </c>
       <c r="C45" t="s">
         <v>434</v>
@@ -7943,7 +7943,7 @@
         <v>43403</v>
       </c>
       <c r="B46" t="n">
-        <v>131210</v>
+        <v>161967</v>
       </c>
       <c r="C46" t="s">
         <v>444</v>
@@ -8012,7 +8012,7 @@
         <v>43403</v>
       </c>
       <c r="B47" t="n">
-        <v>131211</v>
+        <v>161968</v>
       </c>
       <c r="C47" t="s">
         <v>454</v>
@@ -8221,7 +8221,7 @@
         <v>43403</v>
       </c>
       <c r="B50" t="n">
-        <v>131212</v>
+        <v>161969</v>
       </c>
       <c r="C50" t="s">
         <v>481</v>
@@ -8292,7 +8292,7 @@
         <v>43403</v>
       </c>
       <c r="B51" t="n">
-        <v>131213</v>
+        <v>161970</v>
       </c>
       <c r="C51" t="s">
         <v>491</v>
@@ -8428,7 +8428,7 @@
         <v>43403</v>
       </c>
       <c r="B53" t="n">
-        <v>131214</v>
+        <v>161971</v>
       </c>
       <c r="C53" t="s">
         <v>507</v>
@@ -8493,7 +8493,7 @@
         <v>43403</v>
       </c>
       <c r="B54" t="n">
-        <v>131215</v>
+        <v>161972</v>
       </c>
       <c r="C54" t="s">
         <v>516</v>
@@ -8562,7 +8562,7 @@
         <v>43403</v>
       </c>
       <c r="B55" t="n">
-        <v>131216</v>
+        <v>161973</v>
       </c>
       <c r="C55" t="s">
         <v>526</v>
@@ -8633,7 +8633,7 @@
         <v>43403</v>
       </c>
       <c r="B56" t="n">
-        <v>131217</v>
+        <v>161974</v>
       </c>
       <c r="C56" t="s">
         <v>536</v>
@@ -8767,7 +8767,7 @@
         <v>43403</v>
       </c>
       <c r="B58" t="n">
-        <v>131218</v>
+        <v>161975</v>
       </c>
       <c r="C58" t="s">
         <v>556</v>
@@ -8832,7 +8832,7 @@
         <v>43403</v>
       </c>
       <c r="B59" t="n">
-        <v>131219</v>
+        <v>161976</v>
       </c>
       <c r="C59" t="s">
         <v>565</v>
@@ -8903,7 +8903,7 @@
         <v>43403</v>
       </c>
       <c r="B60" t="n">
-        <v>131220</v>
+        <v>161977</v>
       </c>
       <c r="C60" t="s">
         <v>574</v>
@@ -9043,7 +9043,7 @@
         <v>43403</v>
       </c>
       <c r="B62" t="n">
-        <v>131221</v>
+        <v>161978</v>
       </c>
       <c r="C62" t="s">
         <v>592</v>
@@ -9114,7 +9114,7 @@
         <v>43403</v>
       </c>
       <c r="B63" t="n">
-        <v>131222</v>
+        <v>161979</v>
       </c>
       <c r="C63" t="s">
         <v>601</v>
@@ -9246,7 +9246,7 @@
         <v>43403</v>
       </c>
       <c r="B65" t="n">
-        <v>131223</v>
+        <v>161980</v>
       </c>
       <c r="C65" t="s">
         <v>616</v>
@@ -9315,7 +9315,7 @@
         <v>43403</v>
       </c>
       <c r="B66" t="n">
-        <v>131224</v>
+        <v>161981</v>
       </c>
       <c r="C66" t="s">
         <v>626</v>
@@ -9380,7 +9380,7 @@
         <v>43403</v>
       </c>
       <c r="B67" t="n">
-        <v>131225</v>
+        <v>161982</v>
       </c>
       <c r="C67" t="s">
         <v>635</v>
@@ -9451,7 +9451,7 @@
         <v>43403</v>
       </c>
       <c r="B68" t="n">
-        <v>131226</v>
+        <v>161983</v>
       </c>
       <c r="C68" t="s">
         <v>644</v>
@@ -9522,7 +9522,7 @@
         <v>43403</v>
       </c>
       <c r="B69" t="n">
-        <v>131227</v>
+        <v>161984</v>
       </c>
       <c r="C69" t="s">
         <v>655</v>
@@ -9587,7 +9587,7 @@
         <v>43403</v>
       </c>
       <c r="B70" t="n">
-        <v>131228</v>
+        <v>161985</v>
       </c>
       <c r="C70" t="s">
         <v>662</v>
@@ -9656,7 +9656,7 @@
         <v>43403</v>
       </c>
       <c r="B71" t="n">
-        <v>131229</v>
+        <v>161986</v>
       </c>
       <c r="C71" t="s">
         <v>671</v>
@@ -9928,7 +9928,7 @@
         <v>43403</v>
       </c>
       <c r="B75" t="n">
-        <v>131230</v>
+        <v>161987</v>
       </c>
       <c r="C75" t="s">
         <v>708</v>
@@ -10003,7 +10003,7 @@
         <v>43403</v>
       </c>
       <c r="B76" t="n">
-        <v>131231</v>
+        <v>161988</v>
       </c>
       <c r="C76" t="s">
         <v>718</v>
@@ -10153,7 +10153,7 @@
         <v>43403</v>
       </c>
       <c r="B78" t="n">
-        <v>131232</v>
+        <v>161989</v>
       </c>
       <c r="C78" t="s">
         <v>738</v>
@@ -10303,7 +10303,7 @@
         <v>43403</v>
       </c>
       <c r="B80" t="n">
-        <v>131233</v>
+        <v>161990</v>
       </c>
       <c r="C80" t="s">
         <v>757</v>
@@ -10368,7 +10368,7 @@
         <v>43403</v>
       </c>
       <c r="B81" t="n">
-        <v>131234</v>
+        <v>161991</v>
       </c>
       <c r="C81" t="s">
         <v>767</v>
@@ -10443,7 +10443,7 @@
         <v>43403</v>
       </c>
       <c r="B82" t="n">
-        <v>131235</v>
+        <v>161992</v>
       </c>
       <c r="C82" t="s">
         <v>777</v>
@@ -10518,7 +10518,7 @@
         <v>43403</v>
       </c>
       <c r="B83" t="n">
-        <v>131236</v>
+        <v>161993</v>
       </c>
       <c r="C83" t="s">
         <v>787</v>
@@ -10668,7 +10668,7 @@
         <v>43403</v>
       </c>
       <c r="B85" t="n">
-        <v>131237</v>
+        <v>161994</v>
       </c>
       <c r="C85" t="s">
         <v>802</v>
@@ -10743,7 +10743,7 @@
         <v>43403</v>
       </c>
       <c r="B86" t="n">
-        <v>131238</v>
+        <v>161995</v>
       </c>
       <c r="C86" t="s">
         <v>809</v>
@@ -10818,7 +10818,7 @@
         <v>43403</v>
       </c>
       <c r="B87" t="n">
-        <v>131239</v>
+        <v>161996</v>
       </c>
       <c r="C87" t="s">
         <v>819</v>
@@ -10889,7 +10889,7 @@
         <v>43403</v>
       </c>
       <c r="B88" t="n">
-        <v>131240</v>
+        <v>161997</v>
       </c>
       <c r="C88" t="s">
         <v>828</v>
@@ -10964,7 +10964,7 @@
         <v>43403</v>
       </c>
       <c r="B89" t="n">
-        <v>131241</v>
+        <v>161998</v>
       </c>
       <c r="C89" t="s">
         <v>836</v>
@@ -11035,7 +11035,7 @@
         <v>43403</v>
       </c>
       <c r="B90" t="n">
-        <v>131242</v>
+        <v>161999</v>
       </c>
       <c r="C90" t="s">
         <v>845</v>
@@ -11110,7 +11110,7 @@
         <v>43403</v>
       </c>
       <c r="B91" t="n">
-        <v>131243</v>
+        <v>162000</v>
       </c>
       <c r="C91" t="s">
         <v>855</v>
@@ -11185,7 +11185,7 @@
         <v>43403</v>
       </c>
       <c r="B92" t="n">
-        <v>131244</v>
+        <v>162001</v>
       </c>
       <c r="C92" t="s">
         <v>863</v>
@@ -11331,7 +11331,7 @@
         <v>43403</v>
       </c>
       <c r="B94" t="n">
-        <v>131245</v>
+        <v>162002</v>
       </c>
       <c r="C94" t="s">
         <v>879</v>
@@ -11406,7 +11406,7 @@
         <v>43403</v>
       </c>
       <c r="B95" t="n">
-        <v>131246</v>
+        <v>162003</v>
       </c>
       <c r="C95" t="s">
         <v>889</v>
@@ -11481,7 +11481,7 @@
         <v>43403</v>
       </c>
       <c r="B96" t="n">
-        <v>131247</v>
+        <v>162004</v>
       </c>
       <c r="C96" t="s">
         <v>899</v>
@@ -11556,7 +11556,7 @@
         <v>43403</v>
       </c>
       <c r="B97" t="n">
-        <v>131248</v>
+        <v>162005</v>
       </c>
       <c r="C97" t="s">
         <v>908</v>
@@ -11631,7 +11631,7 @@
         <v>43403</v>
       </c>
       <c r="B98" t="n">
-        <v>131249</v>
+        <v>162006</v>
       </c>
       <c r="C98" t="s">
         <v>917</v>
@@ -11698,7 +11698,7 @@
         <v>43403</v>
       </c>
       <c r="B99" t="n">
-        <v>131250</v>
+        <v>162007</v>
       </c>
       <c r="C99" t="s">
         <v>927</v>
@@ -11913,7 +11913,7 @@
         <v>43403</v>
       </c>
       <c r="B102" t="n">
-        <v>131251</v>
+        <v>162008</v>
       </c>
       <c r="C102" t="s">
         <v>956</v>
@@ -11988,7 +11988,7 @@
         <v>43403</v>
       </c>
       <c r="B103" t="n">
-        <v>131252</v>
+        <v>162009</v>
       </c>
       <c r="C103" t="s">
         <v>966</v>
@@ -12059,7 +12059,7 @@
         <v>43403</v>
       </c>
       <c r="B104" t="n">
-        <v>131253</v>
+        <v>162010</v>
       </c>
       <c r="C104" t="s">
         <v>975</v>
@@ -12205,7 +12205,7 @@
         <v>43403</v>
       </c>
       <c r="B106" t="n">
-        <v>131254</v>
+        <v>162011</v>
       </c>
       <c r="C106" t="s">
         <v>994</v>
@@ -12355,7 +12355,7 @@
         <v>43403</v>
       </c>
       <c r="B108" t="n">
-        <v>131255</v>
+        <v>162012</v>
       </c>
       <c r="C108" t="s">
         <v>1013</v>
@@ -12430,7 +12430,7 @@
         <v>43403</v>
       </c>
       <c r="B109" t="n">
-        <v>131256</v>
+        <v>162013</v>
       </c>
       <c r="C109" t="s">
         <v>1023</v>
@@ -12576,7 +12576,7 @@
         <v>43403</v>
       </c>
       <c r="B111" t="n">
-        <v>131257</v>
+        <v>162014</v>
       </c>
       <c r="C111" t="s">
         <v>1040</v>
@@ -12651,7 +12651,7 @@
         <v>43403</v>
       </c>
       <c r="B112" t="n">
-        <v>131258</v>
+        <v>162015</v>
       </c>
       <c r="C112" t="s">
         <v>1050</v>
@@ -12726,7 +12726,7 @@
         <v>43403</v>
       </c>
       <c r="B113" t="n">
-        <v>131259</v>
+        <v>162016</v>
       </c>
       <c r="C113" t="s">
         <v>1060</v>
@@ -12795,7 +12795,7 @@
         <v>43403</v>
       </c>
       <c r="B114" t="n">
-        <v>131260</v>
+        <v>162017</v>
       </c>
       <c r="C114" t="s">
         <v>1070</v>
@@ -12866,7 +12866,7 @@
         <v>43403</v>
       </c>
       <c r="B115" t="n">
-        <v>131261</v>
+        <v>162018</v>
       </c>
       <c r="C115" t="s">
         <v>1079</v>
@@ -12937,7 +12937,7 @@
         <v>43403</v>
       </c>
       <c r="B116" t="n">
-        <v>131262</v>
+        <v>162019</v>
       </c>
       <c r="C116" t="s">
         <v>1088</v>
@@ -13008,7 +13008,7 @@
         <v>43403</v>
       </c>
       <c r="B117" t="n">
-        <v>131263</v>
+        <v>162020</v>
       </c>
       <c r="C117" t="s">
         <v>1098</v>
@@ -13079,7 +13079,7 @@
         <v>43403</v>
       </c>
       <c r="B118" t="n">
-        <v>131264</v>
+        <v>162021</v>
       </c>
       <c r="C118" t="s">
         <v>1105</v>
@@ -13154,7 +13154,7 @@
         <v>43403</v>
       </c>
       <c r="B119" t="n">
-        <v>131265</v>
+        <v>162022</v>
       </c>
       <c r="C119" t="s">
         <v>1115</v>
@@ -13229,7 +13229,7 @@
         <v>43403</v>
       </c>
       <c r="B120" t="n">
-        <v>131266</v>
+        <v>162023</v>
       </c>
       <c r="C120" t="s">
         <v>1125</v>
@@ -13304,7 +13304,7 @@
         <v>43403</v>
       </c>
       <c r="B121" t="n">
-        <v>131267</v>
+        <v>162024</v>
       </c>
       <c r="C121" t="s">
         <v>1135</v>
@@ -13379,7 +13379,7 @@
         <v>43403</v>
       </c>
       <c r="B122" t="n">
-        <v>131268</v>
+        <v>162025</v>
       </c>
       <c r="C122" t="s">
         <v>1145</v>
@@ -13454,7 +13454,7 @@
         <v>43403</v>
       </c>
       <c r="B123" t="n">
-        <v>131269</v>
+        <v>162026</v>
       </c>
       <c r="C123" t="s">
         <v>1155</v>
@@ -13529,7 +13529,7 @@
         <v>43403</v>
       </c>
       <c r="B124" t="n">
-        <v>131270</v>
+        <v>162027</v>
       </c>
       <c r="C124" t="s">
         <v>1163</v>
@@ -13604,7 +13604,7 @@
         <v>43403</v>
       </c>
       <c r="B125" t="n">
-        <v>131271</v>
+        <v>162028</v>
       </c>
       <c r="C125" t="s">
         <v>1173</v>
@@ -13679,7 +13679,7 @@
         <v>43403</v>
       </c>
       <c r="B126" t="n">
-        <v>131272</v>
+        <v>162029</v>
       </c>
       <c r="C126" t="s">
         <v>1183</v>
@@ -13744,7 +13744,7 @@
         <v>43403</v>
       </c>
       <c r="B127" t="n">
-        <v>131273</v>
+        <v>162030</v>
       </c>
       <c r="C127" t="s">
         <v>1193</v>
@@ -13819,7 +13819,7 @@
         <v>43403</v>
       </c>
       <c r="B128" t="n">
-        <v>131274</v>
+        <v>162031</v>
       </c>
       <c r="C128" t="s">
         <v>1199</v>
@@ -13894,7 +13894,7 @@
         <v>43403</v>
       </c>
       <c r="B129" t="n">
-        <v>131275</v>
+        <v>162032</v>
       </c>
       <c r="C129" t="s">
         <v>1209</v>
@@ -13969,7 +13969,7 @@
         <v>43403</v>
       </c>
       <c r="B130" t="n">
-        <v>131276</v>
+        <v>162033</v>
       </c>
       <c r="C130" t="s">
         <v>1219</v>
@@ -14044,7 +14044,7 @@
         <v>43403</v>
       </c>
       <c r="B131" t="n">
-        <v>131277</v>
+        <v>162034</v>
       </c>
       <c r="C131" t="s">
         <v>1227</v>
@@ -14119,7 +14119,7 @@
         <v>43403</v>
       </c>
       <c r="B132" t="n">
-        <v>131278</v>
+        <v>162035</v>
       </c>
       <c r="C132" t="s">
         <v>1235</v>
@@ -14190,7 +14190,7 @@
         <v>43403</v>
       </c>
       <c r="B133" t="n">
-        <v>131279</v>
+        <v>162036</v>
       </c>
       <c r="C133" t="s">
         <v>1243</v>
@@ -14259,7 +14259,7 @@
         <v>43403</v>
       </c>
       <c r="B134" t="n">
-        <v>131280</v>
+        <v>162037</v>
       </c>
       <c r="C134" t="s">
         <v>1251</v>
@@ -14328,7 +14328,7 @@
         <v>43403</v>
       </c>
       <c r="B135" t="n">
-        <v>131281</v>
+        <v>162038</v>
       </c>
       <c r="C135" t="s">
         <v>1259</v>
@@ -14397,7 +14397,7 @@
         <v>43403</v>
       </c>
       <c r="B136" t="n">
-        <v>131282</v>
+        <v>162039</v>
       </c>
       <c r="C136" t="s">
         <v>1267</v>
@@ -14525,7 +14525,7 @@
         <v>43403</v>
       </c>
       <c r="B138" t="n">
-        <v>131283</v>
+        <v>162040</v>
       </c>
       <c r="C138" t="s">
         <v>1280</v>
@@ -14592,7 +14592,7 @@
         <v>43403</v>
       </c>
       <c r="B139" t="n">
-        <v>131284</v>
+        <v>162041</v>
       </c>
       <c r="C139" t="s">
         <v>1287</v>
@@ -14663,7 +14663,7 @@
         <v>43403</v>
       </c>
       <c r="B140" t="n">
-        <v>131285</v>
+        <v>162042</v>
       </c>
       <c r="C140" t="s">
         <v>1294</v>
@@ -14730,7 +14730,7 @@
         <v>43403</v>
       </c>
       <c r="B141" t="n">
-        <v>131286</v>
+        <v>162043</v>
       </c>
       <c r="C141" t="s">
         <v>1301</v>
@@ -14801,7 +14801,7 @@
         <v>43403</v>
       </c>
       <c r="B142" t="n">
-        <v>131287</v>
+        <v>162044</v>
       </c>
       <c r="C142" t="s">
         <v>1308</v>
@@ -14943,7 +14943,7 @@
         <v>43403</v>
       </c>
       <c r="B144" t="n">
-        <v>131288</v>
+        <v>162045</v>
       </c>
       <c r="C144" t="s">
         <v>1323</v>
@@ -15014,7 +15014,7 @@
         <v>43403</v>
       </c>
       <c r="B145" t="n">
-        <v>131289</v>
+        <v>162046</v>
       </c>
       <c r="C145" t="s">
         <v>1329</v>
@@ -15085,7 +15085,7 @@
         <v>43403</v>
       </c>
       <c r="B146" t="n">
-        <v>131290</v>
+        <v>162047</v>
       </c>
       <c r="C146" t="s">
         <v>1337</v>
@@ -15156,7 +15156,7 @@
         <v>43403</v>
       </c>
       <c r="B147" t="n">
-        <v>131291</v>
+        <v>162048</v>
       </c>
       <c r="C147" t="s">
         <v>1344</v>
@@ -15227,7 +15227,7 @@
         <v>43403</v>
       </c>
       <c r="B148" t="n">
-        <v>131292</v>
+        <v>162049</v>
       </c>
       <c r="C148" t="s">
         <v>1352</v>
@@ -15298,7 +15298,7 @@
         <v>43403</v>
       </c>
       <c r="B149" t="n">
-        <v>131293</v>
+        <v>162050</v>
       </c>
       <c r="C149" t="s">
         <v>1358</v>
@@ -15369,7 +15369,7 @@
         <v>43403</v>
       </c>
       <c r="B150" t="n">
-        <v>131294</v>
+        <v>162051</v>
       </c>
       <c r="C150" t="s">
         <v>1366</v>
@@ -15440,7 +15440,7 @@
         <v>43403</v>
       </c>
       <c r="B151" t="n">
-        <v>131295</v>
+        <v>162052</v>
       </c>
       <c r="C151" t="s">
         <v>1373</v>
@@ -15507,7 +15507,7 @@
         <v>43403</v>
       </c>
       <c r="B152" t="n">
-        <v>131296</v>
+        <v>162053</v>
       </c>
       <c r="C152" t="s">
         <v>1380</v>
@@ -15578,7 +15578,7 @@
         <v>43403</v>
       </c>
       <c r="B153" t="n">
-        <v>131297</v>
+        <v>162054</v>
       </c>
       <c r="C153" t="s">
         <v>1388</v>
@@ -15649,7 +15649,7 @@
         <v>43403</v>
       </c>
       <c r="B154" t="n">
-        <v>131298</v>
+        <v>162055</v>
       </c>
       <c r="C154" t="s">
         <v>1396</v>
@@ -15716,7 +15716,7 @@
         <v>43403</v>
       </c>
       <c r="B155" t="n">
-        <v>131299</v>
+        <v>162056</v>
       </c>
       <c r="C155" t="s">
         <v>1403</v>
@@ -15787,7 +15787,7 @@
         <v>43403</v>
       </c>
       <c r="B156" t="n">
-        <v>131300</v>
+        <v>162057</v>
       </c>
       <c r="C156" t="s">
         <v>1411</v>
@@ -15858,7 +15858,7 @@
         <v>43403</v>
       </c>
       <c r="B157" t="n">
-        <v>131301</v>
+        <v>162058</v>
       </c>
       <c r="C157" t="s">
         <v>1418</v>
@@ -15980,7 +15980,7 @@
         <v>43403</v>
       </c>
       <c r="B159" t="n">
-        <v>131302</v>
+        <v>162059</v>
       </c>
       <c r="C159" t="s">
         <v>1431</v>
@@ -16100,7 +16100,7 @@
         <v>43403</v>
       </c>
       <c r="B161" t="n">
-        <v>131303</v>
+        <v>162060</v>
       </c>
       <c r="C161" t="s">
         <v>1443</v>
@@ -16165,7 +16165,7 @@
         <v>43403</v>
       </c>
       <c r="B162" t="n">
-        <v>131304</v>
+        <v>162061</v>
       </c>
       <c r="C162" t="s">
         <v>1448</v>
